--- a/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
+++ b/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1739,32 +1736,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -1780,11 +1777,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
+++ b/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1360,7 +1360,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
+++ b/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1366,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1779,6 +1782,11 @@
         <v>452</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
+++ b/user-data/life-expectancy-at-birth/life-expectancy-at-birth.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1375,7 +1375,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7788,7 +7788,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>46.45390244</v>
+        <v>61.88726829</v>
       </c>
     </row>
     <row r="437">
@@ -7802,7 +7802,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>46.27312195</v>
+        <v>62.87502439</v>
       </c>
     </row>
     <row r="438">
@@ -7816,7 +7816,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>46.28358537</v>
+        <v>63.90914634</v>
       </c>
     </row>
     <row r="439">
@@ -7830,7 +7830,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>46.46295122</v>
+        <v>64.96756098</v>
       </c>
     </row>
     <row r="440">
@@ -7844,7 +7844,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>46.791</v>
+        <v>66.02470732</v>
       </c>
     </row>
     <row r="441">
@@ -7858,7 +7858,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>47.23229268</v>
+        <v>67.04312195</v>
       </c>
     </row>
     <row r="442">
@@ -7872,7 +7872,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>47.74265854</v>
+        <v>67.98282927</v>
       </c>
     </row>
     <row r="443">
@@ -7886,7 +7886,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>48.27370732</v>
+        <v>68.82095122</v>
       </c>
     </row>
     <row r="444">
@@ -7900,7 +7900,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>48.78663415</v>
+        <v>69.54404878</v>
       </c>
     </row>
     <row r="445">
@@ -7914,7 +7914,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>49.25682927</v>
+        <v>70.14819512</v>
       </c>
     </row>
     <row r="446">
@@ -7928,7 +7928,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>49.67529268</v>
+        <v>70.64336585</v>
       </c>
     </row>
     <row r="447">
@@ -7942,7 +7942,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>50.04756098</v>
+        <v>71.05109756</v>
       </c>
     </row>
     <row r="448">
@@ -7956,7 +7956,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>50.40173171</v>
+        <v>71.40882927</v>
       </c>
     </row>
     <row r="449">
@@ -7982,7 +7982,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>61.88726829</v>
+        <v>51.93587805</v>
       </c>
     </row>
     <row r="451">
@@ -7996,7 +7996,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>62.87502439</v>
+        <v>51.75719512</v>
       </c>
     </row>
     <row r="452">
@@ -8010,7 +8010,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>63.90914634</v>
+        <v>51.65526829</v>
       </c>
     </row>
     <row r="453">
@@ -8024,7 +8024,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>64.96756098</v>
+        <v>51.63904878</v>
       </c>
     </row>
     <row r="454">
@@ -8038,7 +8038,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>66.02470732</v>
+        <v>51.7164878</v>
       </c>
     </row>
     <row r="455">
@@ -8052,7 +8052,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>67.04312195</v>
+        <v>51.88904878</v>
       </c>
     </row>
     <row r="456">
@@ -8066,7 +8066,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>67.98282927</v>
+        <v>52.1502439</v>
       </c>
     </row>
     <row r="457">
@@ -8080,7 +8080,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>68.82095122</v>
+        <v>52.47914634</v>
       </c>
     </row>
     <row r="458">
@@ -8094,7 +8094,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>69.54404878</v>
+        <v>52.85582927</v>
       </c>
     </row>
     <row r="459">
@@ -8108,7 +8108,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>70.14819512</v>
+        <v>53.26485366</v>
       </c>
     </row>
     <row r="460">
@@ -8122,7 +8122,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>70.64336585</v>
+        <v>53.69482927</v>
       </c>
     </row>
     <row r="461">
@@ -8136,7 +8136,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>71.05109756</v>
+        <v>54.13736585</v>
       </c>
     </row>
     <row r="462">
@@ -8150,7 +8150,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>71.40882927</v>
+        <v>54.5875122</v>
       </c>
     </row>
     <row r="463">
@@ -8176,7 +8176,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>51.93587805</v>
+        <v>79.23658537</v>
       </c>
     </row>
     <row r="465">
@@ -8190,7 +8190,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>51.75719512</v>
+        <v>79.48780488</v>
       </c>
     </row>
     <row r="466">
@@ -8204,7 +8204,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>51.65526829</v>
+        <v>79.5902439</v>
       </c>
     </row>
     <row r="467">
@@ -8218,7 +8218,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>51.63904878</v>
+        <v>79.83902439</v>
       </c>
     </row>
     <row r="468">
@@ -8232,7 +8232,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>51.7164878</v>
+        <v>80.14146341</v>
       </c>
     </row>
     <row r="469">
@@ -8246,7 +8246,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>51.88904878</v>
+        <v>80.29268293</v>
       </c>
     </row>
     <row r="470">
@@ -8260,7 +8260,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>52.1502439</v>
+        <v>80.64390244</v>
       </c>
     </row>
     <row r="471">
@@ -8274,7 +8274,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>52.47914634</v>
+        <v>80.36987805</v>
       </c>
     </row>
     <row r="472">
@@ -8288,7 +8288,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>52.85582927</v>
+        <v>80.54321951</v>
       </c>
     </row>
     <row r="473">
@@ -8302,7 +8302,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>53.26485366</v>
+        <v>80.71709756</v>
       </c>
     </row>
     <row r="474">
@@ -8316,7 +8316,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>53.69482927</v>
+        <v>80.8934878</v>
       </c>
     </row>
     <row r="475">
@@ -8330,7 +8330,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>54.13736585</v>
+        <v>81.06831707</v>
       </c>
     </row>
     <row r="476">
@@ -8344,7 +8344,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>54.5875122</v>
+        <v>81.23804878</v>
       </c>
     </row>
     <row r="477">
@@ -8370,7 +8370,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>79.23658537</v>
+        <v>69.5912439</v>
       </c>
     </row>
     <row r="479">
@@ -8384,7 +8384,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>79.48780488</v>
+        <v>70.04778049</v>
       </c>
     </row>
     <row r="480">
@@ -8398,7 +8398,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>79.5902439</v>
+        <v>70.50814634</v>
       </c>
     </row>
     <row r="481">
@@ -8412,7 +8412,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>79.83902439</v>
+        <v>70.96826829</v>
       </c>
     </row>
     <row r="482">
@@ -8426,7 +8426,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>80.14146341</v>
+        <v>71.42260976</v>
       </c>
     </row>
     <row r="483">
@@ -8440,7 +8440,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>80.29268293</v>
+        <v>71.86658537</v>
       </c>
     </row>
     <row r="484">
@@ -8454,7 +8454,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>80.64390244</v>
+        <v>72.29609756</v>
       </c>
     </row>
     <row r="485">
@@ -8468,7 +8468,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>80.36987805</v>
+        <v>72.71063415</v>
       </c>
     </row>
     <row r="486">
@@ -8482,7 +8482,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>80.54321951</v>
+        <v>73.10963415</v>
       </c>
     </row>
     <row r="487">
@@ -8496,7 +8496,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>80.71709756</v>
+        <v>73.49158537</v>
       </c>
     </row>
     <row r="488">
@@ -8510,7 +8510,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>80.8934878</v>
+        <v>73.85697561</v>
       </c>
     </row>
     <row r="489">
@@ -8524,7 +8524,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>81.06831707</v>
+        <v>74.20682927</v>
       </c>
     </row>
     <row r="490">
@@ -8538,7 +8538,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>81.23804878</v>
+        <v>74.54373171</v>
       </c>
     </row>
     <row r="491">
@@ -8564,7 +8564,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>69.5912439</v>
+        <v>43.69231707</v>
       </c>
     </row>
     <row r="493">
@@ -8578,7 +8578,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>70.04778049</v>
+        <v>43.78739024</v>
       </c>
     </row>
     <row r="494">
@@ -8592,7 +8592,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>70.50814634</v>
+        <v>43.96358537</v>
       </c>
     </row>
     <row r="495">
@@ -8606,7 +8606,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>70.96826829</v>
+        <v>44.22390244</v>
       </c>
     </row>
     <row r="496">
@@ -8620,7 +8620,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>71.42260976</v>
+        <v>44.56782927</v>
       </c>
     </row>
     <row r="497">
@@ -8634,7 +8634,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>71.86658537</v>
+        <v>44.99592683</v>
       </c>
     </row>
     <row r="498">
@@ -8648,7 +8648,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>72.29609756</v>
+        <v>45.50819512</v>
       </c>
     </row>
     <row r="499">
@@ -8662,7 +8662,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>72.71063415</v>
+        <v>46.0912439</v>
       </c>
     </row>
     <row r="500">
@@ -8676,7 +8676,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>73.10963415</v>
+        <v>46.72912195</v>
       </c>
     </row>
     <row r="501">
@@ -8690,7 +8690,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>73.49158537</v>
+        <v>47.40492683</v>
       </c>
     </row>
     <row r="502">
@@ -8704,7 +8704,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>73.85697561</v>
+        <v>48.09873171</v>
       </c>
     </row>
     <row r="503">
@@ -8718,7 +8718,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>74.20682927</v>
+        <v>48.79304878</v>
       </c>
     </row>
     <row r="504">
@@ -8732,7 +8732,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>74.54373171</v>
+        <v>49.47539024</v>
       </c>
     </row>
     <row r="505">
@@ -8757,9 +8757,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>43.69231707</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8771,9 +8769,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>43.78739024</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8785,9 +8781,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>43.96358537</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8799,9 +8793,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>44.22390244</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8813,9 +8805,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>44.56782927</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8827,9 +8817,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>44.99592683</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8841,9 +8829,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>45.50819512</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8855,9 +8841,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>46.0912439</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8869,9 +8853,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>46.72912195</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8883,9 +8865,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>47.40492683</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8897,9 +8877,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>48.09873171</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8911,9 +8889,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>48.79304878</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8925,9 +8901,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>49.47539024</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8951,7 +8925,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>46.68717073</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8963,7 +8939,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>46.78702439</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -8975,7 +8953,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>46.92970732</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -8987,7 +8967,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>47.12314634</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -8999,7 +8981,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>47.36978049</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9011,7 +8995,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>47.67156098</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9023,7 +9009,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>48.028</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9035,7 +9023,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>48.42717073</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9047,7 +9037,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>48.85717073</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9059,7 +9051,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>49.30753659</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9071,7 +9065,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>49.76985366</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9083,7 +9079,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>50.23619512</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9095,7 +9093,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>50.70058537</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9120,7 +9120,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>46.68717073</v>
+        <v>76.75856098</v>
       </c>
     </row>
     <row r="535">
@@ -9134,7 +9134,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>46.78702439</v>
+        <v>77.13104878</v>
       </c>
     </row>
     <row r="536">
@@ -9148,7 +9148,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>46.92970732</v>
+        <v>77.4615122</v>
       </c>
     </row>
     <row r="537">
@@ -9162,7 +9162,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>47.12314634</v>
+        <v>77.73792683</v>
       </c>
     </row>
     <row r="538">
@@ -9176,7 +9176,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>47.36978049</v>
+        <v>77.95980488</v>
       </c>
     </row>
     <row r="539">
@@ -9190,7 +9190,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>47.67156098</v>
+        <v>78.13721951</v>
       </c>
     </row>
     <row r="540">
@@ -9204,7 +9204,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>48.028</v>
+        <v>78.2897561</v>
       </c>
     </row>
     <row r="541">
@@ -9218,7 +9218,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>48.42717073</v>
+        <v>78.44297561</v>
       </c>
     </row>
     <row r="542">
@@ -9232,7 +9232,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>48.85717073</v>
+        <v>78.61741463</v>
       </c>
     </row>
     <row r="543">
@@ -9246,7 +9246,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>49.30753659</v>
+        <v>78.81858537</v>
       </c>
     </row>
     <row r="544">
@@ -9260,7 +9260,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>49.76985366</v>
+        <v>79.05046341</v>
       </c>
     </row>
     <row r="545">
@@ -9274,7 +9274,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>50.23619512</v>
+        <v>79.3065122</v>
       </c>
     </row>
     <row r="546">
@@ -9288,7 +9288,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>50.70058537</v>
+        <v>79.57265854</v>
       </c>
     </row>
     <row r="547">
@@ -9314,7 +9314,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>76.75856098</v>
+        <v>72.14073171</v>
       </c>
     </row>
     <row r="549">
@@ -9328,7 +9328,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>77.13104878</v>
+        <v>72.61978049</v>
       </c>
     </row>
     <row r="550">
@@ -9342,7 +9342,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>77.4615122</v>
+        <v>73.06960976</v>
       </c>
     </row>
     <row r="551">
@@ -9356,7 +9356,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>77.73792683</v>
+        <v>73.46509756</v>
       </c>
     </row>
     <row r="552">
@@ -9370,7 +9370,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>77.95980488</v>
+        <v>73.79370732</v>
       </c>
     </row>
     <row r="553">
@@ -9384,7 +9384,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>78.13721951</v>
+        <v>74.05390244</v>
       </c>
     </row>
     <row r="554">
@@ -9398,7 +9398,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>78.2897561</v>
+        <v>74.25631707</v>
       </c>
     </row>
     <row r="555">
@@ -9412,7 +9412,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>78.44297561</v>
+        <v>74.42407317</v>
       </c>
     </row>
     <row r="556">
@@ -9426,7 +9426,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>78.61741463</v>
+        <v>74.57982927</v>
       </c>
     </row>
     <row r="557">
@@ -9440,7 +9440,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>78.81858537</v>
+        <v>74.73163415</v>
       </c>
     </row>
     <row r="558">
@@ -9454,7 +9454,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>79.05046341</v>
+        <v>74.88502439</v>
       </c>
     </row>
     <row r="559">
@@ -9468,7 +9468,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>79.3065122</v>
+        <v>75.042</v>
       </c>
     </row>
     <row r="560">
@@ -9482,7 +9482,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>79.57265854</v>
+        <v>75.1995122</v>
       </c>
     </row>
     <row r="561">
@@ -9508,7 +9508,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>72.14073171</v>
+        <v>70.98721951</v>
       </c>
     </row>
     <row r="563">
@@ -9522,7 +9522,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>72.61978049</v>
+        <v>71.25790244</v>
       </c>
     </row>
     <row r="564">
@@ -9536,7 +9536,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>73.06960976</v>
+        <v>71.51729268</v>
       </c>
     </row>
     <row r="565">
@@ -9550,7 +9550,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>73.46509756</v>
+        <v>71.771</v>
       </c>
     </row>
     <row r="566">
@@ -9564,7 +9564,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>73.79370732</v>
+        <v>72.01860976</v>
       </c>
     </row>
     <row r="567">
@@ -9578,7 +9578,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>74.05390244</v>
+        <v>72.26060976</v>
       </c>
     </row>
     <row r="568">
@@ -9592,7 +9592,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>74.25631707</v>
+        <v>72.49558537</v>
       </c>
     </row>
     <row r="569">
@@ -9606,7 +9606,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>74.42407317</v>
+        <v>72.72304878</v>
       </c>
     </row>
     <row r="570">
@@ -9620,7 +9620,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>74.57982927</v>
+        <v>72.94353659</v>
       </c>
     </row>
     <row r="571">
@@ -9634,7 +9634,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>74.73163415</v>
+        <v>73.15807317</v>
       </c>
     </row>
     <row r="572">
@@ -9648,7 +9648,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>74.88502439</v>
+        <v>73.36768293</v>
       </c>
     </row>
     <row r="573">
@@ -9662,7 +9662,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>75.042</v>
+        <v>73.57385366</v>
       </c>
     </row>
     <row r="574">
@@ -9676,7 +9676,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>75.1995122</v>
+        <v>73.77707317</v>
       </c>
     </row>
     <row r="575">
@@ -9702,7 +9702,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>70.98721951</v>
+        <v>57.87943902</v>
       </c>
     </row>
     <row r="577">
@@ -9716,7 +9716,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>71.25790244</v>
+        <v>58.11380488</v>
       </c>
     </row>
     <row r="578">
@@ -9730,7 +9730,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>71.51729268</v>
+        <v>58.34870732</v>
       </c>
     </row>
     <row r="579">
@@ -9744,7 +9744,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>71.771</v>
+        <v>58.58314634</v>
       </c>
     </row>
     <row r="580">
@@ -9758,7 +9758,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>72.01860976</v>
+        <v>58.81804878</v>
       </c>
     </row>
     <row r="581">
@@ -9772,7 +9772,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>72.26060976</v>
+        <v>59.05239024</v>
       </c>
     </row>
     <row r="582">
@@ -9786,7 +9786,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>72.49558537</v>
+        <v>59.28604878</v>
       </c>
     </row>
     <row r="583">
@@ -9800,7 +9800,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>72.72304878</v>
+        <v>59.519</v>
       </c>
     </row>
     <row r="584">
@@ -9814,7 +9814,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>72.94353659</v>
+        <v>59.74970732</v>
       </c>
     </row>
     <row r="585">
@@ -9828,7 +9828,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>73.15807317</v>
+        <v>59.97817073</v>
       </c>
     </row>
     <row r="586">
@@ -9842,7 +9842,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>73.36768293</v>
+        <v>60.20341463</v>
       </c>
     </row>
     <row r="587">
@@ -9856,7 +9856,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>73.57385366</v>
+        <v>60.4254878</v>
       </c>
     </row>
     <row r="588">
@@ -9870,7 +9870,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>73.77707317</v>
+        <v>60.644</v>
       </c>
     </row>
     <row r="589">
@@ -9896,7 +9896,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>57.87943902</v>
+        <v>52.30192683</v>
       </c>
     </row>
     <row r="591">
@@ -9910,7 +9910,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>58.11380488</v>
+        <v>52.4412439</v>
       </c>
     </row>
     <row r="592">
@@ -9924,7 +9924,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>58.34870732</v>
+        <v>52.69217073</v>
       </c>
     </row>
     <row r="593">
@@ -9938,7 +9938,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>58.58314634</v>
+        <v>53.04880488</v>
       </c>
     </row>
     <row r="594">
@@ -9952,7 +9952,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>58.81804878</v>
+        <v>53.49965854</v>
       </c>
     </row>
     <row r="595">
@@ -9966,7 +9966,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>59.05239024</v>
+        <v>54.03329268</v>
       </c>
     </row>
     <row r="596">
@@ -9980,7 +9980,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>59.28604878</v>
+        <v>54.63426829</v>
       </c>
     </row>
     <row r="597">
@@ -9994,7 +9994,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>59.519</v>
+        <v>55.27617073</v>
       </c>
     </row>
     <row r="598">
@@ -10008,7 +10008,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>59.74970732</v>
+        <v>55.93404878</v>
       </c>
     </row>
     <row r="599">
@@ -10022,7 +10022,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>59.97817073</v>
+        <v>56.5844878</v>
       </c>
     </row>
     <row r="600">
@@ -10036,7 +10036,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>60.20341463</v>
+        <v>57.20402439</v>
       </c>
     </row>
     <row r="601">
@@ -10050,7 +10050,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>60.4254878</v>
+        <v>57.77521951</v>
       </c>
     </row>
     <row r="602">
@@ -10064,7 +10064,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>60.644</v>
+        <v>58.29656098</v>
       </c>
     </row>
     <row r="603">
@@ -10090,7 +10090,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>52.30192683</v>
+        <v>77.7344878</v>
       </c>
     </row>
     <row r="605">
@@ -10104,7 +10104,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>52.4412439</v>
+        <v>77.89580488</v>
       </c>
     </row>
     <row r="606">
@@ -10118,7 +10118,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>52.69217073</v>
+        <v>78.04409756</v>
       </c>
     </row>
     <row r="607">
@@ -10132,7 +10132,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>53.04880488</v>
+        <v>78.18239024</v>
       </c>
     </row>
     <row r="608">
@@ -10146,7 +10146,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>53.49965854</v>
+        <v>78.31417073</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>54.03329268</v>
+        <v>78.44602439</v>
       </c>
     </row>
     <row r="610">
@@ -10174,7 +10174,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>54.63426829</v>
+        <v>78.5845122</v>
       </c>
     </row>
     <row r="611">
@@ -10188,7 +10188,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>55.27617073</v>
+        <v>78.73465854</v>
       </c>
     </row>
     <row r="612">
@@ -10202,7 +10202,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>55.93404878</v>
+        <v>78.9004878</v>
       </c>
     </row>
     <row r="613">
@@ -10216,7 +10216,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>56.5844878</v>
+        <v>79.0825122</v>
       </c>
     </row>
     <row r="614">
@@ -10230,7 +10230,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>57.20402439</v>
+        <v>79.27970732</v>
       </c>
     </row>
     <row r="615">
@@ -10244,7 +10244,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>57.77521951</v>
+        <v>79.48956098</v>
       </c>
     </row>
     <row r="616">
@@ -10258,7 +10258,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>58.29656098</v>
+        <v>79.70502439</v>
       </c>
     </row>
     <row r="617">
@@ -10284,7 +10284,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>77.7344878</v>
+        <v>46.45390244</v>
       </c>
     </row>
     <row r="619">
@@ -10298,7 +10298,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>77.89580488</v>
+        <v>46.27312195</v>
       </c>
     </row>
     <row r="620">
@@ -10312,7 +10312,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>78.04409756</v>
+        <v>46.28358537</v>
       </c>
     </row>
     <row r="621">
@@ -10326,7 +10326,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>78.18239024</v>
+        <v>46.46295122</v>
       </c>
     </row>
     <row r="622">
@@ -10340,7 +10340,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>78.31417073</v>
+        <v>46.791</v>
       </c>
     </row>
     <row r="623">
@@ -10354,7 +10354,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>78.44602439</v>
+        <v>47.23229268</v>
       </c>
     </row>
     <row r="624">
@@ -10368,7 +10368,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>78.5845122</v>
+        <v>47.74265854</v>
       </c>
     </row>
     <row r="625">
@@ -10382,7 +10382,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>78.73465854</v>
+        <v>48.27370732</v>
       </c>
     </row>
     <row r="626">
@@ -10396,7 +10396,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>78.9004878</v>
+        <v>48.78663415</v>
       </c>
     </row>
     <row r="627">
@@ -10410,7 +10410,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>79.0825122</v>
+        <v>49.25682927</v>
       </c>
     </row>
     <row r="628">
@@ -10424,7 +10424,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>79.27970732</v>
+        <v>49.67529268</v>
       </c>
     </row>
     <row r="629">
@@ -10438,7 +10438,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>79.48956098</v>
+        <v>50.04756098</v>
       </c>
     </row>
     <row r="630">
@@ -10452,7 +10452,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>79.70502439</v>
+        <v>50.40173171</v>
       </c>
     </row>
     <row r="631">
@@ -40304,7 +40304,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>67.86341463</v>
+        <v>77.74146341</v>
       </c>
     </row>
     <row r="2803">
@@ -40318,7 +40318,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>68.28707317</v>
+        <v>77.99268293</v>
       </c>
     </row>
     <row r="2804">
@@ -40332,7 +40332,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>68.27560976</v>
+        <v>78.14390244</v>
       </c>
     </row>
     <row r="2805">
@@ -40346,7 +40346,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>68.21073171</v>
+        <v>78.44634146</v>
       </c>
     </row>
     <row r="2806">
@@ -40360,7 +40360,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>68.18536585</v>
+        <v>78.74634146</v>
       </c>
     </row>
     <row r="2807">
@@ -40374,7 +40374,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>67.95682927</v>
+        <v>79.04878049</v>
       </c>
     </row>
     <row r="2808">
@@ -40388,7 +40388,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>68.07756098</v>
+        <v>79.24878049</v>
       </c>
     </row>
     <row r="2809">
@@ -40402,7 +40402,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>68.22219512</v>
+        <v>79.44878049</v>
       </c>
     </row>
     <row r="2810">
@@ -40416,7 +40416,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>68.25146341</v>
+        <v>79.6</v>
       </c>
     </row>
     <row r="2811">
@@ -40430,7 +40430,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>69.19</v>
+        <v>80.05121951</v>
       </c>
     </row>
     <row r="2812">
@@ -40444,7 +40444,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>70.27560976</v>
+        <v>80.40243902</v>
       </c>
     </row>
     <row r="2813">
@@ -40458,7 +40458,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>70.80926829</v>
+        <v>80.95121951</v>
       </c>
     </row>
     <row r="2814">
@@ -40472,7 +40472,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>70.94414634</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="2815">
@@ -40498,7 +40498,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>77.74146341</v>
+        <v>67.86341463</v>
       </c>
     </row>
     <row r="2817">
@@ -40512,7 +40512,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>77.99268293</v>
+        <v>68.28707317</v>
       </c>
     </row>
     <row r="2818">
@@ -40526,7 +40526,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>78.14390244</v>
+        <v>68.27560976</v>
       </c>
     </row>
     <row r="2819">
@@ -40540,7 +40540,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>78.44634146</v>
+        <v>68.21073171</v>
       </c>
     </row>
     <row r="2820">
@@ -40554,7 +40554,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>78.74634146</v>
+        <v>68.18536585</v>
       </c>
     </row>
     <row r="2821">
@@ -40568,7 +40568,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>79.04878049</v>
+        <v>67.95682927</v>
       </c>
     </row>
     <row r="2822">
@@ -40582,7 +40582,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>79.24878049</v>
+        <v>68.07756098</v>
       </c>
     </row>
     <row r="2823">
@@ -40596,7 +40596,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>79.44878049</v>
+        <v>68.22219512</v>
       </c>
     </row>
     <row r="2824">
@@ -40610,7 +40610,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>79.6</v>
+        <v>68.25146341</v>
       </c>
     </row>
     <row r="2825">
@@ -40624,7 +40624,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>80.05121951</v>
+        <v>69.19</v>
       </c>
     </row>
     <row r="2826">
@@ -40638,7 +40638,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>80.40243902</v>
+        <v>70.27560976</v>
       </c>
     </row>
     <row r="2827">
@@ -40652,7 +40652,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>80.95121951</v>
+        <v>70.80926829</v>
       </c>
     </row>
     <row r="2828">
@@ -40666,7 +40666,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>81.5</v>
+        <v>70.94414634</v>
       </c>
     </row>
     <row r="2829">
@@ -44129,43 +44129,43 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>46.45390244</v>
+        <v>61.88726829</v>
       </c>
       <c r="D33" t="n">
-        <v>46.27312195</v>
+        <v>62.87502439</v>
       </c>
       <c r="E33" t="n">
-        <v>46.28358537</v>
+        <v>63.90914634</v>
       </c>
       <c r="F33" t="n">
-        <v>46.46295122</v>
+        <v>64.96756098</v>
       </c>
       <c r="G33" t="n">
-        <v>46.791</v>
+        <v>66.02470732</v>
       </c>
       <c r="H33" t="n">
-        <v>47.23229268</v>
+        <v>67.04312195</v>
       </c>
       <c r="I33" t="n">
-        <v>47.74265854</v>
+        <v>67.98282927</v>
       </c>
       <c r="J33" t="n">
-        <v>48.27370732</v>
+        <v>68.82095122</v>
       </c>
       <c r="K33" t="n">
-        <v>48.78663415</v>
+        <v>69.54404878</v>
       </c>
       <c r="L33" t="n">
-        <v>49.25682927</v>
+        <v>70.14819512</v>
       </c>
       <c r="M33" t="n">
-        <v>49.67529268</v>
+        <v>70.64336585</v>
       </c>
       <c r="N33" t="n">
-        <v>50.04756098</v>
+        <v>71.05109756</v>
       </c>
       <c r="O33" t="n">
-        <v>50.40173171</v>
+        <v>71.40882927</v>
       </c>
       <c r="P33"/>
     </row>
@@ -44177,43 +44177,43 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>61.88726829</v>
+        <v>51.93587805</v>
       </c>
       <c r="D34" t="n">
-        <v>62.87502439</v>
+        <v>51.75719512</v>
       </c>
       <c r="E34" t="n">
-        <v>63.90914634</v>
+        <v>51.65526829</v>
       </c>
       <c r="F34" t="n">
-        <v>64.96756098</v>
+        <v>51.63904878</v>
       </c>
       <c r="G34" t="n">
-        <v>66.02470732</v>
+        <v>51.7164878</v>
       </c>
       <c r="H34" t="n">
-        <v>67.04312195</v>
+        <v>51.88904878</v>
       </c>
       <c r="I34" t="n">
-        <v>67.98282927</v>
+        <v>52.1502439</v>
       </c>
       <c r="J34" t="n">
-        <v>68.82095122</v>
+        <v>52.47914634</v>
       </c>
       <c r="K34" t="n">
-        <v>69.54404878</v>
+        <v>52.85582927</v>
       </c>
       <c r="L34" t="n">
-        <v>70.14819512</v>
+        <v>53.26485366</v>
       </c>
       <c r="M34" t="n">
-        <v>70.64336585</v>
+        <v>53.69482927</v>
       </c>
       <c r="N34" t="n">
-        <v>71.05109756</v>
+        <v>54.13736585</v>
       </c>
       <c r="O34" t="n">
-        <v>71.40882927</v>
+        <v>54.5875122</v>
       </c>
       <c r="P34"/>
     </row>
@@ -44225,43 +44225,43 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>51.93587805</v>
+        <v>79.23658537</v>
       </c>
       <c r="D35" t="n">
-        <v>51.75719512</v>
+        <v>79.48780488</v>
       </c>
       <c r="E35" t="n">
-        <v>51.65526829</v>
+        <v>79.5902439</v>
       </c>
       <c r="F35" t="n">
-        <v>51.63904878</v>
+        <v>79.83902439</v>
       </c>
       <c r="G35" t="n">
-        <v>51.7164878</v>
+        <v>80.14146341</v>
       </c>
       <c r="H35" t="n">
-        <v>51.88904878</v>
+        <v>80.29268293</v>
       </c>
       <c r="I35" t="n">
-        <v>52.1502439</v>
+        <v>80.64390244</v>
       </c>
       <c r="J35" t="n">
-        <v>52.47914634</v>
+        <v>80.36987805</v>
       </c>
       <c r="K35" t="n">
-        <v>52.85582927</v>
+        <v>80.54321951</v>
       </c>
       <c r="L35" t="n">
-        <v>53.26485366</v>
+        <v>80.71709756</v>
       </c>
       <c r="M35" t="n">
-        <v>53.69482927</v>
+        <v>80.8934878</v>
       </c>
       <c r="N35" t="n">
-        <v>54.13736585</v>
+        <v>81.06831707</v>
       </c>
       <c r="O35" t="n">
-        <v>54.5875122</v>
+        <v>81.23804878</v>
       </c>
       <c r="P35"/>
     </row>
@@ -44273,43 +44273,43 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>79.23658537</v>
+        <v>69.5912439</v>
       </c>
       <c r="D36" t="n">
-        <v>79.48780488</v>
+        <v>70.04778049</v>
       </c>
       <c r="E36" t="n">
-        <v>79.5902439</v>
+        <v>70.50814634</v>
       </c>
       <c r="F36" t="n">
-        <v>79.83902439</v>
+        <v>70.96826829</v>
       </c>
       <c r="G36" t="n">
-        <v>80.14146341</v>
+        <v>71.42260976</v>
       </c>
       <c r="H36" t="n">
-        <v>80.29268293</v>
+        <v>71.86658537</v>
       </c>
       <c r="I36" t="n">
-        <v>80.64390244</v>
+        <v>72.29609756</v>
       </c>
       <c r="J36" t="n">
-        <v>80.36987805</v>
+        <v>72.71063415</v>
       </c>
       <c r="K36" t="n">
-        <v>80.54321951</v>
+        <v>73.10963415</v>
       </c>
       <c r="L36" t="n">
-        <v>80.71709756</v>
+        <v>73.49158537</v>
       </c>
       <c r="M36" t="n">
-        <v>80.8934878</v>
+        <v>73.85697561</v>
       </c>
       <c r="N36" t="n">
-        <v>81.06831707</v>
+        <v>74.20682927</v>
       </c>
       <c r="O36" t="n">
-        <v>81.23804878</v>
+        <v>74.54373171</v>
       </c>
       <c r="P36"/>
     </row>
@@ -44321,43 +44321,43 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5912439</v>
+        <v>43.69231707</v>
       </c>
       <c r="D37" t="n">
-        <v>70.04778049</v>
+        <v>43.78739024</v>
       </c>
       <c r="E37" t="n">
-        <v>70.50814634</v>
+        <v>43.96358537</v>
       </c>
       <c r="F37" t="n">
-        <v>70.96826829</v>
+        <v>44.22390244</v>
       </c>
       <c r="G37" t="n">
-        <v>71.42260976</v>
+        <v>44.56782927</v>
       </c>
       <c r="H37" t="n">
-        <v>71.86658537</v>
+        <v>44.99592683</v>
       </c>
       <c r="I37" t="n">
-        <v>72.29609756</v>
+        <v>45.50819512</v>
       </c>
       <c r="J37" t="n">
-        <v>72.71063415</v>
+        <v>46.0912439</v>
       </c>
       <c r="K37" t="n">
-        <v>73.10963415</v>
+        <v>46.72912195</v>
       </c>
       <c r="L37" t="n">
-        <v>73.49158537</v>
+        <v>47.40492683</v>
       </c>
       <c r="M37" t="n">
-        <v>73.85697561</v>
+        <v>48.09873171</v>
       </c>
       <c r="N37" t="n">
-        <v>74.20682927</v>
+        <v>48.79304878</v>
       </c>
       <c r="O37" t="n">
-        <v>74.54373171</v>
+        <v>49.47539024</v>
       </c>
       <c r="P37"/>
     </row>
@@ -44368,45 +44368,19 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>43.69231707</v>
-      </c>
-      <c r="D38" t="n">
-        <v>43.78739024</v>
-      </c>
-      <c r="E38" t="n">
-        <v>43.96358537</v>
-      </c>
-      <c r="F38" t="n">
-        <v>44.22390244</v>
-      </c>
-      <c r="G38" t="n">
-        <v>44.56782927</v>
-      </c>
-      <c r="H38" t="n">
-        <v>44.99592683</v>
-      </c>
-      <c r="I38" t="n">
-        <v>45.50819512</v>
-      </c>
-      <c r="J38" t="n">
-        <v>46.0912439</v>
-      </c>
-      <c r="K38" t="n">
-        <v>46.72912195</v>
-      </c>
-      <c r="L38" t="n">
-        <v>47.40492683</v>
-      </c>
-      <c r="M38" t="n">
-        <v>48.09873171</v>
-      </c>
-      <c r="N38" t="n">
-        <v>48.79304878</v>
-      </c>
-      <c r="O38" t="n">
-        <v>49.47539024</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38"/>
     </row>
     <row r="39">
@@ -44416,19 +44390,45 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
+      <c r="C39" t="n">
+        <v>46.68717073</v>
+      </c>
+      <c r="D39" t="n">
+        <v>46.78702439</v>
+      </c>
+      <c r="E39" t="n">
+        <v>46.92970732</v>
+      </c>
+      <c r="F39" t="n">
+        <v>47.12314634</v>
+      </c>
+      <c r="G39" t="n">
+        <v>47.36978049</v>
+      </c>
+      <c r="H39" t="n">
+        <v>47.67156098</v>
+      </c>
+      <c r="I39" t="n">
+        <v>48.028</v>
+      </c>
+      <c r="J39" t="n">
+        <v>48.42717073</v>
+      </c>
+      <c r="K39" t="n">
+        <v>48.85717073</v>
+      </c>
+      <c r="L39" t="n">
+        <v>49.30753659</v>
+      </c>
+      <c r="M39" t="n">
+        <v>49.76985366</v>
+      </c>
+      <c r="N39" t="n">
+        <v>50.23619512</v>
+      </c>
+      <c r="O39" t="n">
+        <v>50.70058537</v>
+      </c>
       <c r="P39"/>
     </row>
     <row r="40">
@@ -44439,43 +44439,43 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>46.68717073</v>
+        <v>76.75856098</v>
       </c>
       <c r="D40" t="n">
-        <v>46.78702439</v>
+        <v>77.13104878</v>
       </c>
       <c r="E40" t="n">
-        <v>46.92970732</v>
+        <v>77.4615122</v>
       </c>
       <c r="F40" t="n">
-        <v>47.12314634</v>
+        <v>77.73792683</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36978049</v>
+        <v>77.95980488</v>
       </c>
       <c r="H40" t="n">
-        <v>47.67156098</v>
+        <v>78.13721951</v>
       </c>
       <c r="I40" t="n">
-        <v>48.028</v>
+        <v>78.2897561</v>
       </c>
       <c r="J40" t="n">
-        <v>48.42717073</v>
+        <v>78.44297561</v>
       </c>
       <c r="K40" t="n">
-        <v>48.85717073</v>
+        <v>78.61741463</v>
       </c>
       <c r="L40" t="n">
-        <v>49.30753659</v>
+        <v>78.81858537</v>
       </c>
       <c r="M40" t="n">
-        <v>49.76985366</v>
+        <v>79.05046341</v>
       </c>
       <c r="N40" t="n">
-        <v>50.23619512</v>
+        <v>79.3065122</v>
       </c>
       <c r="O40" t="n">
-        <v>50.70058537</v>
+        <v>79.57265854</v>
       </c>
       <c r="P40"/>
     </row>
@@ -44487,43 +44487,43 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>76.75856098</v>
+        <v>72.14073171</v>
       </c>
       <c r="D41" t="n">
-        <v>77.13104878</v>
+        <v>72.61978049</v>
       </c>
       <c r="E41" t="n">
-        <v>77.4615122</v>
+        <v>73.06960976</v>
       </c>
       <c r="F41" t="n">
-        <v>77.73792683</v>
+        <v>73.46509756</v>
       </c>
       <c r="G41" t="n">
-        <v>77.95980488</v>
+        <v>73.79370732</v>
       </c>
       <c r="H41" t="n">
-        <v>78.13721951</v>
+        <v>74.05390244</v>
       </c>
       <c r="I41" t="n">
-        <v>78.2897561</v>
+        <v>74.25631707</v>
       </c>
       <c r="J41" t="n">
-        <v>78.44297561</v>
+        <v>74.42407317</v>
       </c>
       <c r="K41" t="n">
-        <v>78.61741463</v>
+        <v>74.57982927</v>
       </c>
       <c r="L41" t="n">
-        <v>78.81858537</v>
+        <v>74.73163415</v>
       </c>
       <c r="M41" t="n">
-        <v>79.05046341</v>
+        <v>74.88502439</v>
       </c>
       <c r="N41" t="n">
-        <v>79.3065122</v>
+        <v>75.042</v>
       </c>
       <c r="O41" t="n">
-        <v>79.57265854</v>
+        <v>75.1995122</v>
       </c>
       <c r="P41"/>
     </row>
@@ -44535,43 +44535,43 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>72.14073171</v>
+        <v>70.98721951</v>
       </c>
       <c r="D42" t="n">
-        <v>72.61978049</v>
+        <v>71.25790244</v>
       </c>
       <c r="E42" t="n">
-        <v>73.06960976</v>
+        <v>71.51729268</v>
       </c>
       <c r="F42" t="n">
-        <v>73.46509756</v>
+        <v>71.771</v>
       </c>
       <c r="G42" t="n">
-        <v>73.79370732</v>
+        <v>72.01860976</v>
       </c>
       <c r="H42" t="n">
-        <v>74.05390244</v>
+        <v>72.26060976</v>
       </c>
       <c r="I42" t="n">
-        <v>74.25631707</v>
+        <v>72.49558537</v>
       </c>
       <c r="J42" t="n">
-        <v>74.42407317</v>
+        <v>72.72304878</v>
       </c>
       <c r="K42" t="n">
-        <v>74.57982927</v>
+        <v>72.94353659</v>
       </c>
       <c r="L42" t="n">
-        <v>74.73163415</v>
+        <v>73.15807317</v>
       </c>
       <c r="M42" t="n">
-        <v>74.88502439</v>
+        <v>73.36768293</v>
       </c>
       <c r="N42" t="n">
-        <v>75.042</v>
+        <v>73.57385366</v>
       </c>
       <c r="O42" t="n">
-        <v>75.1995122</v>
+        <v>73.77707317</v>
       </c>
       <c r="P42"/>
     </row>
@@ -44583,43 +44583,43 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>70.98721951</v>
+        <v>57.87943902</v>
       </c>
       <c r="D43" t="n">
-        <v>71.25790244</v>
+        <v>58.11380488</v>
       </c>
       <c r="E43" t="n">
-        <v>71.51729268</v>
+        <v>58.34870732</v>
       </c>
       <c r="F43" t="n">
-        <v>71.771</v>
+        <v>58.58314634</v>
       </c>
       <c r="G43" t="n">
-        <v>72.01860976</v>
+        <v>58.81804878</v>
       </c>
       <c r="H43" t="n">
-        <v>72.26060976</v>
+        <v>59.05239024</v>
       </c>
       <c r="I43" t="n">
-        <v>72.49558537</v>
+        <v>59.28604878</v>
       </c>
       <c r="J43" t="n">
-        <v>72.72304878</v>
+        <v>59.519</v>
       </c>
       <c r="K43" t="n">
-        <v>72.94353659</v>
+        <v>59.74970732</v>
       </c>
       <c r="L43" t="n">
-        <v>73.15807317</v>
+        <v>59.97817073</v>
       </c>
       <c r="M43" t="n">
-        <v>73.36768293</v>
+        <v>60.20341463</v>
       </c>
       <c r="N43" t="n">
-        <v>73.57385366</v>
+        <v>60.4254878</v>
       </c>
       <c r="O43" t="n">
-        <v>73.77707317</v>
+        <v>60.644</v>
       </c>
       <c r="P43"/>
     </row>
@@ -44631,43 +44631,43 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>57.87943902</v>
+        <v>52.30192683</v>
       </c>
       <c r="D44" t="n">
-        <v>58.11380488</v>
+        <v>52.4412439</v>
       </c>
       <c r="E44" t="n">
-        <v>58.34870732</v>
+        <v>52.69217073</v>
       </c>
       <c r="F44" t="n">
-        <v>58.58314634</v>
+        <v>53.04880488</v>
       </c>
       <c r="G44" t="n">
-        <v>58.81804878</v>
+        <v>53.49965854</v>
       </c>
       <c r="H44" t="n">
-        <v>59.05239024</v>
+        <v>54.03329268</v>
       </c>
       <c r="I44" t="n">
-        <v>59.28604878</v>
+        <v>54.63426829</v>
       </c>
       <c r="J44" t="n">
-        <v>59.519</v>
+        <v>55.27617073</v>
       </c>
       <c r="K44" t="n">
-        <v>59.74970732</v>
+        <v>55.93404878</v>
       </c>
       <c r="L44" t="n">
-        <v>59.97817073</v>
+        <v>56.5844878</v>
       </c>
       <c r="M44" t="n">
-        <v>60.20341463</v>
+        <v>57.20402439</v>
       </c>
       <c r="N44" t="n">
-        <v>60.4254878</v>
+        <v>57.77521951</v>
       </c>
       <c r="O44" t="n">
-        <v>60.644</v>
+        <v>58.29656098</v>
       </c>
       <c r="P44"/>
     </row>
@@ -44679,43 +44679,43 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>52.30192683</v>
+        <v>77.7344878</v>
       </c>
       <c r="D45" t="n">
-        <v>52.4412439</v>
+        <v>77.89580488</v>
       </c>
       <c r="E45" t="n">
-        <v>52.69217073</v>
+        <v>78.04409756</v>
       </c>
       <c r="F45" t="n">
-        <v>53.04880488</v>
+        <v>78.18239024</v>
       </c>
       <c r="G45" t="n">
-        <v>53.49965854</v>
+        <v>78.31417073</v>
       </c>
       <c r="H45" t="n">
-        <v>54.03329268</v>
+        <v>78.44602439</v>
       </c>
       <c r="I45" t="n">
-        <v>54.63426829</v>
+        <v>78.5845122</v>
       </c>
       <c r="J45" t="n">
-        <v>55.27617073</v>
+        <v>78.73465854</v>
       </c>
       <c r="K45" t="n">
-        <v>55.93404878</v>
+        <v>78.9004878</v>
       </c>
       <c r="L45" t="n">
-        <v>56.5844878</v>
+        <v>79.0825122</v>
       </c>
       <c r="M45" t="n">
-        <v>57.20402439</v>
+        <v>79.27970732</v>
       </c>
       <c r="N45" t="n">
-        <v>57.77521951</v>
+        <v>79.48956098</v>
       </c>
       <c r="O45" t="n">
-        <v>58.29656098</v>
+        <v>79.70502439</v>
       </c>
       <c r="P45"/>
     </row>
@@ -44727,43 +44727,43 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>77.7344878</v>
+        <v>46.45390244</v>
       </c>
       <c r="D46" t="n">
-        <v>77.89580488</v>
+        <v>46.27312195</v>
       </c>
       <c r="E46" t="n">
-        <v>78.04409756</v>
+        <v>46.28358537</v>
       </c>
       <c r="F46" t="n">
-        <v>78.18239024</v>
+        <v>46.46295122</v>
       </c>
       <c r="G46" t="n">
-        <v>78.31417073</v>
+        <v>46.791</v>
       </c>
       <c r="H46" t="n">
-        <v>78.44602439</v>
+        <v>47.23229268</v>
       </c>
       <c r="I46" t="n">
-        <v>78.5845122</v>
+        <v>47.74265854</v>
       </c>
       <c r="J46" t="n">
-        <v>78.73465854</v>
+        <v>48.27370732</v>
       </c>
       <c r="K46" t="n">
-        <v>78.9004878</v>
+        <v>48.78663415</v>
       </c>
       <c r="L46" t="n">
-        <v>79.0825122</v>
+        <v>49.25682927</v>
       </c>
       <c r="M46" t="n">
-        <v>79.27970732</v>
+        <v>49.67529268</v>
       </c>
       <c r="N46" t="n">
-        <v>79.48956098</v>
+        <v>50.04756098</v>
       </c>
       <c r="O46" t="n">
-        <v>79.70502439</v>
+        <v>50.40173171</v>
       </c>
       <c r="P46"/>
     </row>
@@ -51971,43 +51971,43 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>67.86341463</v>
+        <v>77.74146341</v>
       </c>
       <c r="D202" t="n">
-        <v>68.28707317</v>
+        <v>77.99268293</v>
       </c>
       <c r="E202" t="n">
-        <v>68.27560976</v>
+        <v>78.14390244</v>
       </c>
       <c r="F202" t="n">
-        <v>68.21073171</v>
+        <v>78.44634146</v>
       </c>
       <c r="G202" t="n">
-        <v>68.18536585</v>
+        <v>78.74634146</v>
       </c>
       <c r="H202" t="n">
-        <v>67.95682927</v>
+        <v>79.04878049</v>
       </c>
       <c r="I202" t="n">
-        <v>68.07756098</v>
+        <v>79.24878049</v>
       </c>
       <c r="J202" t="n">
-        <v>68.22219512</v>
+        <v>79.44878049</v>
       </c>
       <c r="K202" t="n">
-        <v>68.25146341</v>
+        <v>79.6</v>
       </c>
       <c r="L202" t="n">
-        <v>69.19</v>
+        <v>80.05121951</v>
       </c>
       <c r="M202" t="n">
-        <v>70.27560976</v>
+        <v>80.40243902</v>
       </c>
       <c r="N202" t="n">
-        <v>70.80926829</v>
+        <v>80.95121951</v>
       </c>
       <c r="O202" t="n">
-        <v>70.94414634</v>
+        <v>81.5</v>
       </c>
       <c r="P202"/>
     </row>
@@ -52019,43 +52019,43 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>77.74146341</v>
+        <v>67.86341463</v>
       </c>
       <c r="D203" t="n">
-        <v>77.99268293</v>
+        <v>68.28707317</v>
       </c>
       <c r="E203" t="n">
-        <v>78.14390244</v>
+        <v>68.27560976</v>
       </c>
       <c r="F203" t="n">
-        <v>78.44634146</v>
+        <v>68.21073171</v>
       </c>
       <c r="G203" t="n">
-        <v>78.74634146</v>
+        <v>68.18536585</v>
       </c>
       <c r="H203" t="n">
-        <v>79.04878049</v>
+        <v>67.95682927</v>
       </c>
       <c r="I203" t="n">
-        <v>79.24878049</v>
+        <v>68.07756098</v>
       </c>
       <c r="J203" t="n">
-        <v>79.44878049</v>
+        <v>68.22219512</v>
       </c>
       <c r="K203" t="n">
-        <v>79.6</v>
+        <v>68.25146341</v>
       </c>
       <c r="L203" t="n">
-        <v>80.05121951</v>
+        <v>69.19</v>
       </c>
       <c r="M203" t="n">
-        <v>80.40243902</v>
+        <v>70.27560976</v>
       </c>
       <c r="N203" t="n">
-        <v>80.95121951</v>
+        <v>70.80926829</v>
       </c>
       <c r="O203" t="n">
-        <v>81.5</v>
+        <v>70.94414634</v>
       </c>
       <c r="P203"/>
     </row>
